--- a/dataset/plagiarism.xlsx
+++ b/dataset/plagiarism.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iyush\PycharmProjects\BERT\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB26740-1AF1-4514-838C-508F96456702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FF3436-F2AA-430C-B686-31599C5AF2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11820" yWindow="0" windowWidth="7380" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G556"/>
+  <dimension ref="A1:G812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
-      <selection activeCell="F458" sqref="F458"/>
+    <sheetView tabSelected="1" topLeftCell="A792" workbookViewId="0">
+      <selection activeCell="A802" sqref="A802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,15 +420,15 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>378</v>
+        <v>800</v>
       </c>
       <c r="F2">
-        <f>COUNTIF(D2:D487,1)</f>
-        <v>192</v>
+        <f>COUNTIF(D2:D998,1)</f>
+        <v>342</v>
       </c>
       <c r="G2">
         <f>E2-F2</f>
-        <v>186</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -7338,6 +7338,9 @@
       <c r="B463">
         <v>97</v>
       </c>
+      <c r="C463">
+        <v>50.23</v>
+      </c>
       <c r="D463">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7350,6 +7353,9 @@
       <c r="B464">
         <v>98</v>
       </c>
+      <c r="C464">
+        <v>57.57</v>
+      </c>
       <c r="D464">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7362,9 +7368,12 @@
       <c r="B465">
         <v>102</v>
       </c>
+      <c r="C465">
+        <v>77.19</v>
+      </c>
       <c r="D465">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.35">
@@ -7374,9 +7383,12 @@
       <c r="B466">
         <v>106</v>
       </c>
+      <c r="C466">
+        <v>76.34</v>
+      </c>
       <c r="D466">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
@@ -7386,6 +7398,9 @@
       <c r="B467">
         <v>163</v>
       </c>
+      <c r="C467">
+        <v>52.67</v>
+      </c>
       <c r="D467">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7398,6 +7413,9 @@
       <c r="B468">
         <v>97</v>
       </c>
+      <c r="C468">
+        <v>36.700000000000003</v>
+      </c>
       <c r="D468">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7410,6 +7428,9 @@
       <c r="B469">
         <v>98</v>
       </c>
+      <c r="C469">
+        <v>55.7</v>
+      </c>
       <c r="D469">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7422,6 +7443,9 @@
       <c r="B470">
         <v>102</v>
       </c>
+      <c r="C470">
+        <v>61.3</v>
+      </c>
       <c r="D470">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7434,6 +7458,9 @@
       <c r="B471">
         <v>106</v>
       </c>
+      <c r="C471">
+        <v>59.09</v>
+      </c>
       <c r="D471">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7446,9 +7473,12 @@
       <c r="B472">
         <v>163</v>
       </c>
+      <c r="C472">
+        <v>72.930000000000007</v>
+      </c>
       <c r="D472">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
@@ -7458,6 +7488,9 @@
       <c r="B473">
         <v>97</v>
       </c>
+      <c r="C473">
+        <v>50.33</v>
+      </c>
       <c r="D473">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7470,6 +7503,9 @@
       <c r="B474">
         <v>98</v>
       </c>
+      <c r="C474">
+        <v>59.29</v>
+      </c>
       <c r="D474">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7482,9 +7518,12 @@
       <c r="B475">
         <v>102</v>
       </c>
+      <c r="C475">
+        <v>77.930000000000007</v>
+      </c>
       <c r="D475">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
@@ -7494,9 +7533,12 @@
       <c r="B476">
         <v>106</v>
       </c>
+      <c r="C476">
+        <v>76.42</v>
+      </c>
       <c r="D476">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.35">
@@ -7506,6 +7548,9 @@
       <c r="B477">
         <v>163</v>
       </c>
+      <c r="C477">
+        <v>54.76</v>
+      </c>
       <c r="D477">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7518,6 +7563,9 @@
       <c r="B478">
         <v>97</v>
       </c>
+      <c r="C478">
+        <v>47.06</v>
+      </c>
       <c r="D478">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7530,6 +7578,9 @@
       <c r="B479">
         <v>98</v>
       </c>
+      <c r="C479">
+        <v>54.91</v>
+      </c>
       <c r="D479">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7542,9 +7593,12 @@
       <c r="B480">
         <v>102</v>
       </c>
+      <c r="C480">
+        <v>80.31</v>
+      </c>
       <c r="D480">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.35">
@@ -7554,9 +7608,12 @@
       <c r="B481">
         <v>106</v>
       </c>
+      <c r="C481">
+        <v>85.45</v>
+      </c>
       <c r="D481">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
@@ -7566,6 +7623,9 @@
       <c r="B482">
         <v>163</v>
       </c>
+      <c r="C482">
+        <v>52.33</v>
+      </c>
       <c r="D482">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7578,9 +7638,12 @@
       <c r="B483">
         <v>171</v>
       </c>
+      <c r="C483">
+        <v>100</v>
+      </c>
       <c r="D483">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.35">
@@ -7590,6 +7653,9 @@
       <c r="B484">
         <v>181</v>
       </c>
+      <c r="C484">
+        <v>44.67</v>
+      </c>
       <c r="D484">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7602,6 +7668,9 @@
       <c r="B485">
         <v>183</v>
       </c>
+      <c r="C485">
+        <v>38.6</v>
+      </c>
       <c r="D485">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7614,9 +7683,12 @@
       <c r="B486">
         <v>181</v>
       </c>
+      <c r="C486">
+        <v>100</v>
+      </c>
       <c r="D486">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.35">
@@ -7626,6 +7698,9 @@
       <c r="B487">
         <v>183</v>
       </c>
+      <c r="C487">
+        <v>48.34</v>
+      </c>
       <c r="D487">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7638,9 +7713,12 @@
       <c r="B488">
         <v>183</v>
       </c>
+      <c r="C488">
+        <v>100</v>
+      </c>
       <c r="D488">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.35">
@@ -7650,6 +7728,9 @@
       <c r="B489">
         <v>53</v>
       </c>
+      <c r="C489">
+        <v>31.08</v>
+      </c>
       <c r="D489">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7662,6 +7743,9 @@
       <c r="B490">
         <v>61</v>
       </c>
+      <c r="C490">
+        <v>35.14</v>
+      </c>
       <c r="D490">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7674,6 +7758,9 @@
       <c r="B491">
         <v>67</v>
       </c>
+      <c r="C491">
+        <v>31.49</v>
+      </c>
       <c r="D491">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7686,6 +7773,9 @@
       <c r="B492">
         <v>70</v>
       </c>
+      <c r="C492">
+        <v>41.44</v>
+      </c>
       <c r="D492">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7698,6 +7788,9 @@
       <c r="B493">
         <v>157</v>
       </c>
+      <c r="C493">
+        <v>38.49</v>
+      </c>
       <c r="D493">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7710,6 +7803,9 @@
       <c r="B494">
         <v>53</v>
       </c>
+      <c r="C494">
+        <v>31.08</v>
+      </c>
       <c r="D494">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7722,6 +7818,9 @@
       <c r="B495">
         <v>61</v>
       </c>
+      <c r="C495">
+        <v>43.29</v>
+      </c>
       <c r="D495">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7734,6 +7833,9 @@
       <c r="B496">
         <v>67</v>
       </c>
+      <c r="C496">
+        <v>36.4</v>
+      </c>
       <c r="D496">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7746,6 +7848,9 @@
       <c r="B497">
         <v>70</v>
       </c>
+      <c r="C497">
+        <v>51.32</v>
+      </c>
       <c r="D497">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7758,6 +7863,9 @@
       <c r="B498">
         <v>157</v>
       </c>
+      <c r="C498">
+        <v>47.05</v>
+      </c>
       <c r="D498">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7770,6 +7878,9 @@
       <c r="B499">
         <v>53</v>
       </c>
+      <c r="C499">
+        <v>37.58</v>
+      </c>
       <c r="D499">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7782,6 +7893,9 @@
       <c r="B500">
         <v>61</v>
       </c>
+      <c r="C500">
+        <v>53.9</v>
+      </c>
       <c r="D500">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7794,6 +7908,9 @@
       <c r="B501">
         <v>67</v>
       </c>
+      <c r="C501">
+        <v>41.36</v>
+      </c>
       <c r="D501">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7806,6 +7923,9 @@
       <c r="B502">
         <v>70</v>
       </c>
+      <c r="C502">
+        <v>48.22</v>
+      </c>
       <c r="D502">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7818,6 +7938,9 @@
       <c r="B503">
         <v>157</v>
       </c>
+      <c r="C503">
+        <v>48.13</v>
+      </c>
       <c r="D503">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7830,9 +7953,12 @@
       <c r="B504">
         <v>174</v>
       </c>
+      <c r="C504">
+        <v>100</v>
+      </c>
       <c r="D504">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.35">
@@ -7842,6 +7968,9 @@
       <c r="B505">
         <v>185</v>
       </c>
+      <c r="C505">
+        <v>35.369999999999997</v>
+      </c>
       <c r="D505">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7854,9 +7983,12 @@
       <c r="B506">
         <v>185</v>
       </c>
+      <c r="C506">
+        <v>100</v>
+      </c>
       <c r="D506">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.35">
@@ -7866,6 +7998,9 @@
       <c r="B507">
         <v>56</v>
       </c>
+      <c r="C507">
+        <v>36.69</v>
+      </c>
       <c r="D507">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7878,6 +8013,9 @@
       <c r="B508">
         <v>62</v>
       </c>
+      <c r="C508">
+        <v>34.380000000000003</v>
+      </c>
       <c r="D508">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7890,6 +8028,9 @@
       <c r="B509">
         <v>68</v>
       </c>
+      <c r="C509">
+        <v>33.04</v>
+      </c>
       <c r="D509">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7902,6 +8043,9 @@
       <c r="B510">
         <v>71</v>
       </c>
+      <c r="C510">
+        <v>36.020000000000003</v>
+      </c>
       <c r="D510">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7914,6 +8058,9 @@
       <c r="B511">
         <v>158</v>
       </c>
+      <c r="C511">
+        <v>37.43</v>
+      </c>
       <c r="D511">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7926,6 +8073,9 @@
       <c r="B512">
         <v>56</v>
       </c>
+      <c r="C512">
+        <v>57.01</v>
+      </c>
       <c r="D512">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7938,6 +8088,9 @@
       <c r="B513">
         <v>62</v>
       </c>
+      <c r="C513">
+        <v>53.34</v>
+      </c>
       <c r="D513">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7950,6 +8103,9 @@
       <c r="B514">
         <v>68</v>
       </c>
+      <c r="C514">
+        <v>54.73</v>
+      </c>
       <c r="D514">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7962,8 +8118,11 @@
       <c r="B515">
         <v>71</v>
       </c>
+      <c r="C515">
+        <v>50.91</v>
+      </c>
       <c r="D515">
-        <f t="shared" ref="D515:D556" si="8">IF(C515&gt;=70,1,0)</f>
+        <f t="shared" ref="D515:D578" si="8">IF(C515&gt;=70,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7974,6 +8133,9 @@
       <c r="B516">
         <v>158</v>
       </c>
+      <c r="C516">
+        <v>60.16</v>
+      </c>
       <c r="D516">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7986,9 +8148,12 @@
       <c r="B517">
         <v>187</v>
       </c>
+      <c r="C517">
+        <v>100</v>
+      </c>
       <c r="D517">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
@@ -7998,6 +8163,9 @@
       <c r="B518">
         <v>57</v>
       </c>
+      <c r="C518">
+        <v>51.61</v>
+      </c>
       <c r="D518">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8010,9 +8178,12 @@
       <c r="B519">
         <v>63</v>
       </c>
+      <c r="C519">
+        <v>70.53</v>
+      </c>
       <c r="D519">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.35">
@@ -8022,6 +8193,9 @@
       <c r="B520">
         <v>69</v>
       </c>
+      <c r="C520">
+        <v>59.08</v>
+      </c>
       <c r="D520">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8034,6 +8208,9 @@
       <c r="B521">
         <v>72</v>
       </c>
+      <c r="C521">
+        <v>57.26</v>
+      </c>
       <c r="D521">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8046,9 +8223,12 @@
       <c r="B522">
         <v>178</v>
       </c>
+      <c r="C522">
+        <v>100</v>
+      </c>
       <c r="D522">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.35">
@@ -8058,6 +8238,9 @@
       <c r="B523">
         <v>189</v>
       </c>
+      <c r="C523">
+        <v>54.41</v>
+      </c>
       <c r="D523">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8070,9 +8253,12 @@
       <c r="B524">
         <v>189</v>
       </c>
+      <c r="C524">
+        <v>100</v>
+      </c>
       <c r="D524">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.35">
@@ -8082,6 +8268,9 @@
       <c r="B525">
         <v>58</v>
       </c>
+      <c r="C525">
+        <v>53.23</v>
+      </c>
       <c r="D525">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8094,6 +8283,9 @@
       <c r="B526">
         <v>73</v>
       </c>
+      <c r="C526">
+        <v>58.26</v>
+      </c>
       <c r="D526">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8106,6 +8298,9 @@
       <c r="B527">
         <v>160</v>
       </c>
+      <c r="C527">
+        <v>61.52</v>
+      </c>
       <c r="D527">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8118,6 +8313,9 @@
       <c r="B528">
         <v>58</v>
       </c>
+      <c r="C528">
+        <v>50.54</v>
+      </c>
       <c r="D528">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8130,6 +8328,9 @@
       <c r="B529">
         <v>73</v>
       </c>
+      <c r="C529">
+        <v>50.44</v>
+      </c>
       <c r="D529">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8142,6 +8343,9 @@
       <c r="B530">
         <v>160</v>
       </c>
+      <c r="C530">
+        <v>46.26</v>
+      </c>
       <c r="D530">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8154,9 +8358,12 @@
       <c r="B531">
         <v>180</v>
       </c>
+      <c r="C531">
+        <v>100</v>
+      </c>
       <c r="D531">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.35">
@@ -8166,9 +8373,12 @@
       <c r="B532">
         <v>191</v>
       </c>
+      <c r="C532">
+        <v>81.069999999999993</v>
+      </c>
       <c r="D532">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
@@ -8178,9 +8388,12 @@
       <c r="B533">
         <v>191</v>
       </c>
+      <c r="C533">
+        <v>100</v>
+      </c>
       <c r="D533">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.35">
@@ -8190,6 +8403,9 @@
       <c r="B534">
         <v>54</v>
       </c>
+      <c r="C534">
+        <v>55.99</v>
+      </c>
       <c r="D534">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8202,6 +8418,9 @@
       <c r="B535">
         <v>59</v>
       </c>
+      <c r="C535">
+        <v>42.27</v>
+      </c>
       <c r="D535">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8214,6 +8433,9 @@
       <c r="B536">
         <v>64</v>
       </c>
+      <c r="C536">
+        <v>55.14</v>
+      </c>
       <c r="D536">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8226,6 +8448,9 @@
       <c r="B537">
         <v>74</v>
       </c>
+      <c r="C537">
+        <v>51.88</v>
+      </c>
       <c r="D537">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8238,6 +8463,9 @@
       <c r="B538">
         <v>159</v>
       </c>
+      <c r="C538">
+        <v>53.16</v>
+      </c>
       <c r="D538">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8250,6 +8478,9 @@
       <c r="B539">
         <v>54</v>
       </c>
+      <c r="C539">
+        <v>52.85</v>
+      </c>
       <c r="D539">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8262,6 +8493,9 @@
       <c r="B540">
         <v>59</v>
       </c>
+      <c r="C540">
+        <v>43.99</v>
+      </c>
       <c r="D540">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8274,6 +8508,9 @@
       <c r="B541">
         <v>64</v>
       </c>
+      <c r="C541">
+        <v>56.18</v>
+      </c>
       <c r="D541">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8286,6 +8523,9 @@
       <c r="B542">
         <v>74</v>
       </c>
+      <c r="C542">
+        <v>53.29</v>
+      </c>
       <c r="D542">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8298,6 +8538,9 @@
       <c r="B543">
         <v>159</v>
       </c>
+      <c r="C543">
+        <v>56.37</v>
+      </c>
       <c r="D543">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8310,9 +8553,12 @@
       <c r="B544">
         <v>179</v>
       </c>
+      <c r="C544">
+        <v>100</v>
+      </c>
       <c r="D544">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
@@ -8322,6 +8568,9 @@
       <c r="B545">
         <v>182</v>
       </c>
+      <c r="C545">
+        <v>42.59</v>
+      </c>
       <c r="D545">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8334,9 +8583,12 @@
       <c r="B546">
         <v>182</v>
       </c>
+      <c r="C546">
+        <v>100</v>
+      </c>
       <c r="D546">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.35">
@@ -8346,6 +8598,9 @@
       <c r="B547">
         <v>55</v>
       </c>
+      <c r="C547">
+        <v>36.340000000000003</v>
+      </c>
       <c r="D547">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8358,6 +8613,9 @@
       <c r="B548">
         <v>60</v>
       </c>
+      <c r="C548">
+        <v>39.75</v>
+      </c>
       <c r="D548">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8370,6 +8628,9 @@
       <c r="B549">
         <v>65</v>
       </c>
+      <c r="C549">
+        <v>33.33</v>
+      </c>
       <c r="D549">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8382,6 +8643,9 @@
       <c r="B550">
         <v>66</v>
       </c>
+      <c r="C550">
+        <v>56.93</v>
+      </c>
       <c r="D550">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8394,6 +8658,9 @@
       <c r="B551">
         <v>75</v>
       </c>
+      <c r="C551">
+        <v>38.380000000000003</v>
+      </c>
       <c r="D551">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8406,6 +8673,9 @@
       <c r="B552">
         <v>55</v>
       </c>
+      <c r="C552">
+        <v>47.03</v>
+      </c>
       <c r="D552">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8418,6 +8688,9 @@
       <c r="B553">
         <v>60</v>
       </c>
+      <c r="C553">
+        <v>47.51</v>
+      </c>
       <c r="D553">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8430,6 +8703,9 @@
       <c r="B554">
         <v>65</v>
       </c>
+      <c r="C554">
+        <v>35.72</v>
+      </c>
       <c r="D554">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8442,6 +8718,9 @@
       <c r="B555">
         <v>66</v>
       </c>
+      <c r="C555">
+        <v>40.630000000000003</v>
+      </c>
       <c r="D555">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -8454,8 +8733,3741 @@
       <c r="B556">
         <v>75</v>
       </c>
+      <c r="C556">
+        <v>33.33</v>
+      </c>
       <c r="D556">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A557">
+        <v>207</v>
+      </c>
+      <c r="B557">
+        <v>207</v>
+      </c>
+      <c r="C557">
+        <v>100</v>
+      </c>
+      <c r="D557">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A558">
+        <v>207</v>
+      </c>
+      <c r="B558">
+        <v>237</v>
+      </c>
+      <c r="C558">
+        <v>43.86</v>
+      </c>
+      <c r="D558">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A559">
+        <v>237</v>
+      </c>
+      <c r="B559">
+        <v>237</v>
+      </c>
+      <c r="C559">
+        <v>100</v>
+      </c>
+      <c r="D559">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A560">
+        <v>207</v>
+      </c>
+      <c r="B560">
+        <v>175</v>
+      </c>
+      <c r="C560">
+        <v>44.09</v>
+      </c>
+      <c r="D560">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A561">
+        <v>207</v>
+      </c>
+      <c r="B561">
+        <v>188</v>
+      </c>
+      <c r="C561">
+        <v>39.93</v>
+      </c>
+      <c r="D561">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A562">
+        <v>207</v>
+      </c>
+      <c r="B562">
+        <v>169</v>
+      </c>
+      <c r="C562">
+        <v>37.67</v>
+      </c>
+      <c r="D562">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A563">
+        <v>237</v>
+      </c>
+      <c r="B563">
+        <v>175</v>
+      </c>
+      <c r="C563">
+        <v>39.29</v>
+      </c>
+      <c r="D563">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A564">
+        <v>237</v>
+      </c>
+      <c r="B564">
+        <v>188</v>
+      </c>
+      <c r="C564">
+        <v>46.73</v>
+      </c>
+      <c r="D564">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A565">
+        <v>237</v>
+      </c>
+      <c r="B565">
+        <v>169</v>
+      </c>
+      <c r="C565">
+        <v>51.85</v>
+      </c>
+      <c r="D565">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A566">
+        <v>202</v>
+      </c>
+      <c r="B566">
+        <v>202</v>
+      </c>
+      <c r="C566">
+        <v>100</v>
+      </c>
+      <c r="D566">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A567">
+        <v>202</v>
+      </c>
+      <c r="B567">
+        <v>211</v>
+      </c>
+      <c r="C567">
+        <v>51.91</v>
+      </c>
+      <c r="D567">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A568">
+        <v>202</v>
+      </c>
+      <c r="B568">
+        <v>212</v>
+      </c>
+      <c r="C568">
+        <v>62.01</v>
+      </c>
+      <c r="D568">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A569">
+        <v>202</v>
+      </c>
+      <c r="B569">
+        <v>232</v>
+      </c>
+      <c r="C569">
+        <v>53.69</v>
+      </c>
+      <c r="D569">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A570">
+        <v>202</v>
+      </c>
+      <c r="B570">
+        <v>223</v>
+      </c>
+      <c r="C570">
+        <v>56.17</v>
+      </c>
+      <c r="D570">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A571">
+        <v>202</v>
+      </c>
+      <c r="B571">
+        <v>225</v>
+      </c>
+      <c r="C571">
+        <v>65.28</v>
+      </c>
+      <c r="D571">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A572">
+        <v>211</v>
+      </c>
+      <c r="B572">
+        <v>211</v>
+      </c>
+      <c r="C572">
+        <v>100</v>
+      </c>
+      <c r="D572">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A573">
+        <v>211</v>
+      </c>
+      <c r="B573">
+        <v>212</v>
+      </c>
+      <c r="C573">
+        <v>50.85</v>
+      </c>
+      <c r="D573">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A574">
+        <v>211</v>
+      </c>
+      <c r="B574">
+        <v>232</v>
+      </c>
+      <c r="C574">
+        <v>90.21</v>
+      </c>
+      <c r="D574">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A575">
+        <v>211</v>
+      </c>
+      <c r="B575">
+        <v>223</v>
+      </c>
+      <c r="C575">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="D575">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A576">
+        <v>211</v>
+      </c>
+      <c r="B576">
+        <v>225</v>
+      </c>
+      <c r="C576">
+        <v>63.61</v>
+      </c>
+      <c r="D576">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A577">
+        <v>212</v>
+      </c>
+      <c r="B577">
+        <v>212</v>
+      </c>
+      <c r="C577">
+        <v>100</v>
+      </c>
+      <c r="D577">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A578">
+        <v>212</v>
+      </c>
+      <c r="B578">
+        <v>232</v>
+      </c>
+      <c r="C578">
+        <v>51.59</v>
+      </c>
+      <c r="D578">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A579">
+        <v>212</v>
+      </c>
+      <c r="B579">
+        <v>223</v>
+      </c>
+      <c r="C579">
+        <v>54.74</v>
+      </c>
+      <c r="D579">
+        <f t="shared" ref="D579:D642" si="9">IF(C579&gt;=70,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A580">
+        <v>212</v>
+      </c>
+      <c r="B580">
+        <v>225</v>
+      </c>
+      <c r="C580">
+        <v>55.41</v>
+      </c>
+      <c r="D580">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A581">
+        <v>232</v>
+      </c>
+      <c r="B581">
+        <v>232</v>
+      </c>
+      <c r="C581">
+        <v>100</v>
+      </c>
+      <c r="D581">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A582">
+        <v>232</v>
+      </c>
+      <c r="B582">
+        <v>223</v>
+      </c>
+      <c r="C582">
+        <v>35.93</v>
+      </c>
+      <c r="D582">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A583">
+        <v>232</v>
+      </c>
+      <c r="B583">
+        <v>225</v>
+      </c>
+      <c r="C583">
+        <v>70</v>
+      </c>
+      <c r="D583">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A584">
+        <v>223</v>
+      </c>
+      <c r="B584">
+        <v>223</v>
+      </c>
+      <c r="C584">
+        <v>100</v>
+      </c>
+      <c r="D584">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A585">
+        <v>223</v>
+      </c>
+      <c r="B585">
+        <v>225</v>
+      </c>
+      <c r="C585">
+        <v>40.97</v>
+      </c>
+      <c r="D585">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A586">
+        <v>225</v>
+      </c>
+      <c r="B586">
+        <v>255</v>
+      </c>
+      <c r="C586">
+        <v>100</v>
+      </c>
+      <c r="D586">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A587">
+        <v>202</v>
+      </c>
+      <c r="B587">
+        <v>126</v>
+      </c>
+      <c r="C587">
+        <v>65.7</v>
+      </c>
+      <c r="D587">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A588">
+        <v>202</v>
+      </c>
+      <c r="B588">
+        <v>127</v>
+      </c>
+      <c r="C588">
+        <v>58.04</v>
+      </c>
+      <c r="D588">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A589">
+        <v>202</v>
+      </c>
+      <c r="B589">
+        <v>131</v>
+      </c>
+      <c r="C589">
+        <v>63.31</v>
+      </c>
+      <c r="D589">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A590">
+        <v>202</v>
+      </c>
+      <c r="B590">
+        <v>135</v>
+      </c>
+      <c r="C590">
+        <v>65.7</v>
+      </c>
+      <c r="D590">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A591">
+        <v>202</v>
+      </c>
+      <c r="B591">
+        <v>119</v>
+      </c>
+      <c r="C591">
+        <v>63.88</v>
+      </c>
+      <c r="D591">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A592">
+        <v>211</v>
+      </c>
+      <c r="B592">
+        <v>126</v>
+      </c>
+      <c r="C592">
+        <v>61.36</v>
+      </c>
+      <c r="D592">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A593">
+        <v>211</v>
+      </c>
+      <c r="B593">
+        <v>127</v>
+      </c>
+      <c r="C593">
+        <v>64.709999999999994</v>
+      </c>
+      <c r="D593">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A594">
+        <v>211</v>
+      </c>
+      <c r="B594">
+        <v>131</v>
+      </c>
+      <c r="C594">
+        <v>63.15</v>
+      </c>
+      <c r="D594">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A595">
+        <v>211</v>
+      </c>
+      <c r="B595">
+        <v>135</v>
+      </c>
+      <c r="C595">
+        <v>61.36</v>
+      </c>
+      <c r="D595">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A596">
+        <v>211</v>
+      </c>
+      <c r="B596">
+        <v>119</v>
+      </c>
+      <c r="C596">
+        <v>44.76</v>
+      </c>
+      <c r="D596">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A597">
+        <v>212</v>
+      </c>
+      <c r="B597">
+        <v>126</v>
+      </c>
+      <c r="C597">
+        <v>54.94</v>
+      </c>
+      <c r="D597">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A598">
+        <v>212</v>
+      </c>
+      <c r="B598">
+        <v>127</v>
+      </c>
+      <c r="C598">
+        <v>52.44</v>
+      </c>
+      <c r="D598">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A599">
+        <v>212</v>
+      </c>
+      <c r="B599">
+        <v>131</v>
+      </c>
+      <c r="C599">
+        <v>53.62</v>
+      </c>
+      <c r="D599">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A600">
+        <v>212</v>
+      </c>
+      <c r="B600">
+        <v>135</v>
+      </c>
+      <c r="C600">
+        <v>54.94</v>
+      </c>
+      <c r="D600">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A601">
+        <v>212</v>
+      </c>
+      <c r="B601">
+        <v>119</v>
+      </c>
+      <c r="C601">
+        <v>54.14</v>
+      </c>
+      <c r="D601">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A602">
+        <v>232</v>
+      </c>
+      <c r="B602">
+        <v>126</v>
+      </c>
+      <c r="C602">
+        <v>60.81</v>
+      </c>
+      <c r="D602">
+        <f>IF(C603&gt;=70,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A603">
+        <v>232</v>
+      </c>
+      <c r="B603">
+        <v>127</v>
+      </c>
+      <c r="C603">
+        <v>65.06</v>
+      </c>
+      <c r="D603">
+        <f>IF(C604&gt;=70,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A604">
+        <v>232</v>
+      </c>
+      <c r="B604">
+        <v>131</v>
+      </c>
+      <c r="C604">
+        <v>62.72</v>
+      </c>
+      <c r="D604">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A605">
+        <v>232</v>
+      </c>
+      <c r="B605">
+        <v>135</v>
+      </c>
+      <c r="C605">
+        <v>60.81</v>
+      </c>
+      <c r="D605">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A606">
+        <v>232</v>
+      </c>
+      <c r="B606">
+        <v>119</v>
+      </c>
+      <c r="C606">
+        <v>47.22</v>
+      </c>
+      <c r="D606">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A607">
+        <v>223</v>
+      </c>
+      <c r="B607">
+        <v>126</v>
+      </c>
+      <c r="C607">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="D607">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A608">
+        <v>223</v>
+      </c>
+      <c r="B608">
+        <v>127</v>
+      </c>
+      <c r="C608">
+        <v>35.86</v>
+      </c>
+      <c r="D608">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A609">
+        <v>223</v>
+      </c>
+      <c r="B609">
+        <v>131</v>
+      </c>
+      <c r="C609">
+        <v>38.94</v>
+      </c>
+      <c r="D609">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A610">
+        <v>223</v>
+      </c>
+      <c r="B610">
+        <v>135</v>
+      </c>
+      <c r="C610">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="D610">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A611">
+        <v>223</v>
+      </c>
+      <c r="B611">
+        <v>119</v>
+      </c>
+      <c r="C611">
+        <v>61.36</v>
+      </c>
+      <c r="D611">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A612">
+        <v>225</v>
+      </c>
+      <c r="B612">
+        <v>126</v>
+      </c>
+      <c r="C612">
+        <v>66.2</v>
+      </c>
+      <c r="D612">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A613">
+        <v>225</v>
+      </c>
+      <c r="B613">
+        <v>127</v>
+      </c>
+      <c r="C613">
+        <v>82.07</v>
+      </c>
+      <c r="D613">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A614">
+        <v>225</v>
+      </c>
+      <c r="B614">
+        <v>131</v>
+      </c>
+      <c r="C614">
+        <v>65.02</v>
+      </c>
+      <c r="D614">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A615">
+        <v>225</v>
+      </c>
+      <c r="B615">
+        <v>135</v>
+      </c>
+      <c r="C615">
+        <v>66.2</v>
+      </c>
+      <c r="D615">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A616">
+        <v>225</v>
+      </c>
+      <c r="B616">
+        <v>119</v>
+      </c>
+      <c r="C616">
+        <v>50.58</v>
+      </c>
+      <c r="D616">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A617">
+        <v>197</v>
+      </c>
+      <c r="B617">
+        <v>197</v>
+      </c>
+      <c r="C617">
+        <v>100</v>
+      </c>
+      <c r="D617">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A618">
+        <v>197</v>
+      </c>
+      <c r="B618">
+        <v>204</v>
+      </c>
+      <c r="C618">
+        <v>53.55</v>
+      </c>
+      <c r="D618">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A619">
+        <v>197</v>
+      </c>
+      <c r="B619">
+        <v>206</v>
+      </c>
+      <c r="C619">
+        <v>58.34</v>
+      </c>
+      <c r="D619">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A620">
+        <v>197</v>
+      </c>
+      <c r="B620">
+        <v>216</v>
+      </c>
+      <c r="C620">
+        <v>58.73</v>
+      </c>
+      <c r="D620">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A621">
+        <v>197</v>
+      </c>
+      <c r="B621">
+        <v>219</v>
+      </c>
+      <c r="C621">
+        <v>56.79</v>
+      </c>
+      <c r="D621">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A622">
+        <v>197</v>
+      </c>
+      <c r="B622">
+        <v>224</v>
+      </c>
+      <c r="C622">
+        <v>62.03</v>
+      </c>
+      <c r="D622">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A623">
+        <v>197</v>
+      </c>
+      <c r="B623">
+        <v>234</v>
+      </c>
+      <c r="C623">
+        <v>62.54</v>
+      </c>
+      <c r="D623">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A624">
+        <v>197</v>
+      </c>
+      <c r="B624">
+        <v>236</v>
+      </c>
+      <c r="C624">
+        <v>51.05</v>
+      </c>
+      <c r="D624">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A625">
+        <v>204</v>
+      </c>
+      <c r="B625">
+        <v>204</v>
+      </c>
+      <c r="C625">
+        <v>100</v>
+      </c>
+      <c r="D625">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A626">
+        <v>204</v>
+      </c>
+      <c r="B626">
+        <v>206</v>
+      </c>
+      <c r="C626">
+        <v>44.67</v>
+      </c>
+      <c r="D626">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A627">
+        <v>204</v>
+      </c>
+      <c r="B627">
+        <v>216</v>
+      </c>
+      <c r="C627">
+        <v>42.96</v>
+      </c>
+      <c r="D627">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A628">
+        <v>204</v>
+      </c>
+      <c r="B628">
+        <v>219</v>
+      </c>
+      <c r="C628">
+        <v>62.51</v>
+      </c>
+      <c r="D628">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A629">
+        <v>204</v>
+      </c>
+      <c r="B629">
+        <v>224</v>
+      </c>
+      <c r="C629">
+        <v>48.22</v>
+      </c>
+      <c r="D629">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A630">
+        <v>204</v>
+      </c>
+      <c r="B630">
+        <v>234</v>
+      </c>
+      <c r="C630">
+        <v>48.28</v>
+      </c>
+      <c r="D630">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A631">
+        <v>204</v>
+      </c>
+      <c r="B631">
+        <v>236</v>
+      </c>
+      <c r="C631">
+        <v>60.3</v>
+      </c>
+      <c r="D631">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A632">
+        <v>206</v>
+      </c>
+      <c r="B632">
+        <v>206</v>
+      </c>
+      <c r="C632">
+        <v>100</v>
+      </c>
+      <c r="D632">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A633">
+        <v>206</v>
+      </c>
+      <c r="B633">
+        <v>216</v>
+      </c>
+      <c r="C633">
+        <v>97.46</v>
+      </c>
+      <c r="D633">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A634">
+        <v>206</v>
+      </c>
+      <c r="B634">
+        <v>219</v>
+      </c>
+      <c r="C634">
+        <v>52.6</v>
+      </c>
+      <c r="D634">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A635">
+        <v>206</v>
+      </c>
+      <c r="B635">
+        <v>224</v>
+      </c>
+      <c r="C635">
+        <v>87.29</v>
+      </c>
+      <c r="D635">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A636">
+        <v>206</v>
+      </c>
+      <c r="B636">
+        <v>234</v>
+      </c>
+      <c r="C636">
+        <v>61.69</v>
+      </c>
+      <c r="D636">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A637">
+        <v>206</v>
+      </c>
+      <c r="B637">
+        <v>236</v>
+      </c>
+      <c r="C637">
+        <v>53.11</v>
+      </c>
+      <c r="D637">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A638">
+        <v>216</v>
+      </c>
+      <c r="B638">
+        <v>216</v>
+      </c>
+      <c r="C638">
+        <v>100</v>
+      </c>
+      <c r="D638">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A639">
+        <v>216</v>
+      </c>
+      <c r="B639">
+        <v>219</v>
+      </c>
+      <c r="C639">
+        <v>52.05</v>
+      </c>
+      <c r="D639">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A640">
+        <v>216</v>
+      </c>
+      <c r="B640">
+        <v>224</v>
+      </c>
+      <c r="C640">
+        <v>89.32</v>
+      </c>
+      <c r="D640">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A641">
+        <v>216</v>
+      </c>
+      <c r="B641">
+        <v>234</v>
+      </c>
+      <c r="C641">
+        <v>61.36</v>
+      </c>
+      <c r="D641">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A642">
+        <v>216</v>
+      </c>
+      <c r="B642">
+        <v>236</v>
+      </c>
+      <c r="C642">
+        <v>51.69</v>
+      </c>
+      <c r="D642">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A643">
+        <v>219</v>
+      </c>
+      <c r="B643">
+        <v>219</v>
+      </c>
+      <c r="C643">
+        <v>100</v>
+      </c>
+      <c r="D643">
+        <f t="shared" ref="D643:D735" si="10">IF(C643&gt;=70,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A644">
+        <v>219</v>
+      </c>
+      <c r="B644">
+        <v>224</v>
+      </c>
+      <c r="C644">
+        <v>54.3</v>
+      </c>
+      <c r="D644">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A645">
+        <v>219</v>
+      </c>
+      <c r="B645">
+        <v>234</v>
+      </c>
+      <c r="C645">
+        <v>50.33</v>
+      </c>
+      <c r="D645">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A646">
+        <v>219</v>
+      </c>
+      <c r="B646">
+        <v>236</v>
+      </c>
+      <c r="C646">
+        <v>62.65</v>
+      </c>
+      <c r="D646">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A647">
+        <v>224</v>
+      </c>
+      <c r="B647">
+        <v>224</v>
+      </c>
+      <c r="C647">
+        <v>100</v>
+      </c>
+      <c r="D647">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A648">
+        <v>224</v>
+      </c>
+      <c r="B648">
+        <v>234</v>
+      </c>
+      <c r="C648">
+        <v>61.36</v>
+      </c>
+      <c r="D648">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A649">
+        <v>224</v>
+      </c>
+      <c r="B649">
+        <v>236</v>
+      </c>
+      <c r="C649">
+        <v>54.57</v>
+      </c>
+      <c r="D649">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A650">
+        <v>234</v>
+      </c>
+      <c r="B650">
+        <v>234</v>
+      </c>
+      <c r="C650">
+        <v>100</v>
+      </c>
+      <c r="D650">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A651">
+        <v>234</v>
+      </c>
+      <c r="B651">
+        <v>236</v>
+      </c>
+      <c r="C651">
+        <v>46.14</v>
+      </c>
+      <c r="D651">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A652">
+        <v>236</v>
+      </c>
+      <c r="B652">
+        <v>236</v>
+      </c>
+      <c r="C652">
+        <v>100</v>
+      </c>
+      <c r="D652">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A653">
+        <v>197</v>
+      </c>
+      <c r="B653">
+        <v>172</v>
+      </c>
+      <c r="C653">
+        <v>46.47</v>
+      </c>
+      <c r="D653">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A654">
+        <v>197</v>
+      </c>
+      <c r="B654">
+        <v>173</v>
+      </c>
+      <c r="C654">
+        <v>60.54</v>
+      </c>
+      <c r="D654">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A655">
+        <v>197</v>
+      </c>
+      <c r="B655">
+        <v>186</v>
+      </c>
+      <c r="C655">
+        <v>62.32</v>
+      </c>
+      <c r="D655">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A656">
+        <v>197</v>
+      </c>
+      <c r="B656">
+        <v>193</v>
+      </c>
+      <c r="C656">
+        <v>44.89</v>
+      </c>
+      <c r="D656">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A657">
+        <v>204</v>
+      </c>
+      <c r="B657">
+        <v>172</v>
+      </c>
+      <c r="C657">
+        <v>57.01</v>
+      </c>
+      <c r="D657">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A658">
+        <v>204</v>
+      </c>
+      <c r="B658">
+        <v>173</v>
+      </c>
+      <c r="C658">
+        <v>46.61</v>
+      </c>
+      <c r="D658">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A659">
+        <v>204</v>
+      </c>
+      <c r="B659">
+        <v>186</v>
+      </c>
+      <c r="C659">
+        <v>62.4</v>
+      </c>
+      <c r="D659">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A660">
+        <v>204</v>
+      </c>
+      <c r="B660">
+        <v>193</v>
+      </c>
+      <c r="C660">
+        <v>59.48</v>
+      </c>
+      <c r="D660">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A661">
+        <v>206</v>
+      </c>
+      <c r="B661">
+        <v>172</v>
+      </c>
+      <c r="C661">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="D661">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A662">
+        <v>206</v>
+      </c>
+      <c r="B662">
+        <v>173</v>
+      </c>
+      <c r="C662">
+        <v>56.72</v>
+      </c>
+      <c r="D662">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A663">
+        <v>206</v>
+      </c>
+      <c r="B663">
+        <v>186</v>
+      </c>
+      <c r="C663">
+        <v>51.68</v>
+      </c>
+      <c r="D663">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A664">
+        <v>206</v>
+      </c>
+      <c r="B664">
+        <v>193</v>
+      </c>
+      <c r="C664">
+        <v>40.36</v>
+      </c>
+      <c r="D664">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A665">
+        <v>216</v>
+      </c>
+      <c r="B665">
+        <v>172</v>
+      </c>
+      <c r="C665">
+        <v>32.32</v>
+      </c>
+      <c r="D665">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A666">
+        <v>216</v>
+      </c>
+      <c r="B666">
+        <v>173</v>
+      </c>
+      <c r="C666">
+        <v>54.71</v>
+      </c>
+      <c r="D666">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A667">
+        <v>216</v>
+      </c>
+      <c r="B667">
+        <v>186</v>
+      </c>
+      <c r="C667">
+        <v>49.11</v>
+      </c>
+      <c r="D667">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A668">
+        <v>216</v>
+      </c>
+      <c r="B668">
+        <v>193</v>
+      </c>
+      <c r="C668">
+        <v>38.950000000000003</v>
+      </c>
+      <c r="D668">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A669">
+        <v>196</v>
+      </c>
+      <c r="B669">
+        <v>196</v>
+      </c>
+      <c r="C669">
+        <v>100</v>
+      </c>
+      <c r="D669">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A670">
+        <v>196</v>
+      </c>
+      <c r="B670">
+        <v>198</v>
+      </c>
+      <c r="C670">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="D670">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A671">
+        <v>196</v>
+      </c>
+      <c r="B671">
+        <v>203</v>
+      </c>
+      <c r="C671">
+        <v>75.52</v>
+      </c>
+      <c r="D671">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A672">
+        <v>196</v>
+      </c>
+      <c r="B672">
+        <v>205</v>
+      </c>
+      <c r="C672">
+        <v>62.82</v>
+      </c>
+      <c r="D672">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A673">
+        <v>196</v>
+      </c>
+      <c r="B673">
+        <v>217</v>
+      </c>
+      <c r="C673">
+        <v>61.87</v>
+      </c>
+      <c r="D673">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A674">
+        <v>196</v>
+      </c>
+      <c r="B674">
+        <v>218</v>
+      </c>
+      <c r="C674">
+        <v>60.36</v>
+      </c>
+      <c r="D674">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A675">
+        <v>196</v>
+      </c>
+      <c r="B675">
+        <v>233</v>
+      </c>
+      <c r="C675">
+        <v>61.6</v>
+      </c>
+      <c r="D675">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A676">
+        <v>196</v>
+      </c>
+      <c r="B676">
+        <v>235</v>
+      </c>
+      <c r="C676">
+        <v>60.44</v>
+      </c>
+      <c r="D676">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A677">
+        <v>198</v>
+      </c>
+      <c r="B677">
+        <v>198</v>
+      </c>
+      <c r="C677">
+        <v>100</v>
+      </c>
+      <c r="D677">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A678">
+        <v>198</v>
+      </c>
+      <c r="B678">
+        <v>203</v>
+      </c>
+      <c r="C678">
+        <v>60.26</v>
+      </c>
+      <c r="D678">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A679">
+        <v>198</v>
+      </c>
+      <c r="B679">
+        <v>205</v>
+      </c>
+      <c r="C679">
+        <v>92.53</v>
+      </c>
+      <c r="D679">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A680">
+        <v>198</v>
+      </c>
+      <c r="B680">
+        <v>217</v>
+      </c>
+      <c r="C680">
+        <v>91.05</v>
+      </c>
+      <c r="D680">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A681">
+        <v>198</v>
+      </c>
+      <c r="B681">
+        <v>218</v>
+      </c>
+      <c r="C681">
+        <v>80</v>
+      </c>
+      <c r="D681">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A682">
+        <v>198</v>
+      </c>
+      <c r="B682">
+        <v>233</v>
+      </c>
+      <c r="C682">
+        <v>62.98</v>
+      </c>
+      <c r="D682">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A683">
+        <v>198</v>
+      </c>
+      <c r="B683">
+        <v>235</v>
+      </c>
+      <c r="C683">
+        <v>81.11</v>
+      </c>
+      <c r="D683">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A684">
+        <v>203</v>
+      </c>
+      <c r="B684">
+        <v>203</v>
+      </c>
+      <c r="C684">
+        <v>100</v>
+      </c>
+      <c r="D684">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A685">
+        <v>203</v>
+      </c>
+      <c r="B685">
+        <v>205</v>
+      </c>
+      <c r="C685">
+        <v>57.14</v>
+      </c>
+      <c r="D685">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A686">
+        <v>203</v>
+      </c>
+      <c r="B686">
+        <v>217</v>
+      </c>
+      <c r="C686">
+        <v>55.58</v>
+      </c>
+      <c r="D686">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A687">
+        <v>203</v>
+      </c>
+      <c r="B687">
+        <v>218</v>
+      </c>
+      <c r="C687">
+        <v>57.84</v>
+      </c>
+      <c r="D687">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A688">
+        <v>203</v>
+      </c>
+      <c r="B688">
+        <v>233</v>
+      </c>
+      <c r="C688">
+        <v>53.86</v>
+      </c>
+      <c r="D688">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A689">
+        <v>203</v>
+      </c>
+      <c r="B689">
+        <v>235</v>
+      </c>
+      <c r="C689">
+        <v>60.05</v>
+      </c>
+      <c r="D689">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A690">
+        <v>205</v>
+      </c>
+      <c r="B690">
+        <v>205</v>
+      </c>
+      <c r="C690">
+        <v>100</v>
+      </c>
+      <c r="D690">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A691">
+        <v>205</v>
+      </c>
+      <c r="B691">
+        <v>217</v>
+      </c>
+      <c r="C691">
+        <v>97.88</v>
+      </c>
+      <c r="D691">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A692">
+        <v>205</v>
+      </c>
+      <c r="B692">
+        <v>218</v>
+      </c>
+      <c r="C692">
+        <v>77.48</v>
+      </c>
+      <c r="D692">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A693">
+        <v>205</v>
+      </c>
+      <c r="B693">
+        <v>233</v>
+      </c>
+      <c r="C693">
+        <v>63.43</v>
+      </c>
+      <c r="D693">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A694">
+        <v>205</v>
+      </c>
+      <c r="B694">
+        <v>235</v>
+      </c>
+      <c r="C694">
+        <v>78.739999999999995</v>
+      </c>
+      <c r="D694">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A695">
+        <v>217</v>
+      </c>
+      <c r="B695">
+        <v>217</v>
+      </c>
+      <c r="C695">
+        <v>100</v>
+      </c>
+      <c r="D695">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A696">
+        <v>217</v>
+      </c>
+      <c r="B696">
+        <v>218</v>
+      </c>
+      <c r="C696">
+        <v>77.510000000000005</v>
+      </c>
+      <c r="D696">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A697">
+        <v>217</v>
+      </c>
+      <c r="B697">
+        <v>233</v>
+      </c>
+      <c r="C697">
+        <v>64.38</v>
+      </c>
+      <c r="D697">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A698">
+        <v>217</v>
+      </c>
+      <c r="B698">
+        <v>235</v>
+      </c>
+      <c r="C698">
+        <v>79.91</v>
+      </c>
+      <c r="D698">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A699">
+        <v>218</v>
+      </c>
+      <c r="B699">
+        <v>218</v>
+      </c>
+      <c r="C699">
+        <v>100</v>
+      </c>
+      <c r="D699">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A700">
+        <v>218</v>
+      </c>
+      <c r="B700">
+        <v>233</v>
+      </c>
+      <c r="C700">
+        <v>56.37</v>
+      </c>
+      <c r="D700">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A701">
+        <v>218</v>
+      </c>
+      <c r="B701">
+        <v>235</v>
+      </c>
+      <c r="C701">
+        <v>75.11</v>
+      </c>
+      <c r="D701">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A702">
+        <v>233</v>
+      </c>
+      <c r="B702">
+        <v>233</v>
+      </c>
+      <c r="C702">
+        <v>100</v>
+      </c>
+      <c r="D702">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A703">
+        <v>233</v>
+      </c>
+      <c r="B703">
+        <v>235</v>
+      </c>
+      <c r="C703">
+        <v>64.069999999999993</v>
+      </c>
+      <c r="D703">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A704">
+        <v>235</v>
+      </c>
+      <c r="B704">
+        <v>235</v>
+      </c>
+      <c r="C704">
+        <v>100</v>
+      </c>
+      <c r="D704">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A705">
+        <v>199</v>
+      </c>
+      <c r="B705">
+        <v>199</v>
+      </c>
+      <c r="C705">
+        <v>100</v>
+      </c>
+      <c r="D705">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A706">
+        <v>199</v>
+      </c>
+      <c r="B706">
+        <v>208</v>
+      </c>
+      <c r="C706">
+        <v>58.3</v>
+      </c>
+      <c r="D706">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A707">
+        <v>199</v>
+      </c>
+      <c r="B707">
+        <v>215</v>
+      </c>
+      <c r="C707">
+        <v>58.08</v>
+      </c>
+      <c r="D707">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A708">
+        <v>199</v>
+      </c>
+      <c r="B708">
+        <v>220</v>
+      </c>
+      <c r="C708">
+        <v>83.16</v>
+      </c>
+      <c r="D708">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A709">
+        <v>199</v>
+      </c>
+      <c r="B709">
+        <v>226</v>
+      </c>
+      <c r="C709">
+        <v>61.48</v>
+      </c>
+      <c r="D709">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A710">
+        <v>199</v>
+      </c>
+      <c r="B710">
+        <v>231</v>
+      </c>
+      <c r="C710">
+        <v>54.22</v>
+      </c>
+      <c r="D710">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A711">
+        <v>208</v>
+      </c>
+      <c r="B711">
+        <v>208</v>
+      </c>
+      <c r="C711">
+        <v>100</v>
+      </c>
+      <c r="D711">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A712">
+        <v>208</v>
+      </c>
+      <c r="B712">
+        <v>215</v>
+      </c>
+      <c r="C712">
+        <v>55.71</v>
+      </c>
+      <c r="D712">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A713">
+        <v>208</v>
+      </c>
+      <c r="B713">
+        <v>220</v>
+      </c>
+      <c r="C713">
+        <v>59.05</v>
+      </c>
+      <c r="D713">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A714">
+        <v>208</v>
+      </c>
+      <c r="B714">
+        <v>226</v>
+      </c>
+      <c r="C714">
+        <v>55.05</v>
+      </c>
+      <c r="D714">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A715">
+        <v>208</v>
+      </c>
+      <c r="B715">
+        <v>231</v>
+      </c>
+      <c r="C715">
+        <v>58.83</v>
+      </c>
+      <c r="D715">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A716">
+        <v>215</v>
+      </c>
+      <c r="B716">
+        <v>215</v>
+      </c>
+      <c r="C716">
+        <v>100</v>
+      </c>
+      <c r="D716">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A717">
+        <v>220</v>
+      </c>
+      <c r="B717">
+        <v>220</v>
+      </c>
+      <c r="C717">
+        <v>100</v>
+      </c>
+      <c r="D717">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A718">
+        <v>226</v>
+      </c>
+      <c r="B718">
+        <v>226</v>
+      </c>
+      <c r="C718">
+        <v>100</v>
+      </c>
+      <c r="D718">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A719">
+        <v>231</v>
+      </c>
+      <c r="B719">
+        <v>231</v>
+      </c>
+      <c r="C719">
+        <v>100</v>
+      </c>
+      <c r="D719">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A720">
+        <v>230</v>
+      </c>
+      <c r="B720">
+        <v>230</v>
+      </c>
+      <c r="C720">
+        <v>100</v>
+      </c>
+      <c r="D720">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A721">
+        <v>227</v>
+      </c>
+      <c r="B721">
+        <v>227</v>
+      </c>
+      <c r="C721">
+        <v>100</v>
+      </c>
+      <c r="D721">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A722">
+        <v>200</v>
+      </c>
+      <c r="B722">
+        <v>200</v>
+      </c>
+      <c r="C722">
+        <v>100</v>
+      </c>
+      <c r="D722">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A723">
+        <v>209</v>
+      </c>
+      <c r="B723">
+        <v>209</v>
+      </c>
+      <c r="C723">
+        <v>100</v>
+      </c>
+      <c r="D723">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A724">
+        <v>214</v>
+      </c>
+      <c r="B724">
+        <v>214</v>
+      </c>
+      <c r="C724">
+        <v>100</v>
+      </c>
+      <c r="D724">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A725">
+        <v>221</v>
+      </c>
+      <c r="B725">
+        <v>221</v>
+      </c>
+      <c r="C725">
+        <v>100</v>
+      </c>
+      <c r="D725">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A726">
+        <v>229</v>
+      </c>
+      <c r="B726">
+        <v>229</v>
+      </c>
+      <c r="C726">
+        <v>100</v>
+      </c>
+      <c r="D726">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A727">
+        <v>228</v>
+      </c>
+      <c r="B727">
+        <v>228</v>
+      </c>
+      <c r="C727">
+        <v>100</v>
+      </c>
+      <c r="D727">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A728">
+        <v>201</v>
+      </c>
+      <c r="B728">
+        <v>201</v>
+      </c>
+      <c r="C728">
+        <v>100</v>
+      </c>
+      <c r="D728">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A729">
+        <v>210</v>
+      </c>
+      <c r="B729">
+        <v>210</v>
+      </c>
+      <c r="C729">
+        <v>100</v>
+      </c>
+      <c r="D729">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A730">
+        <v>213</v>
+      </c>
+      <c r="B730">
+        <v>213</v>
+      </c>
+      <c r="C730">
+        <v>100</v>
+      </c>
+      <c r="D730">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A731">
+        <v>222</v>
+      </c>
+      <c r="B731">
+        <v>222</v>
+      </c>
+      <c r="C731">
+        <v>100</v>
+      </c>
+      <c r="D731">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A732">
+        <v>238</v>
+      </c>
+      <c r="B732">
+        <v>238</v>
+      </c>
+      <c r="C732">
+        <v>100</v>
+      </c>
+      <c r="D732">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A733">
+        <v>238</v>
+      </c>
+      <c r="B733">
+        <v>239</v>
+      </c>
+      <c r="C733">
+        <v>100</v>
+      </c>
+      <c r="D733">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A734">
+        <v>238</v>
+      </c>
+      <c r="B734">
+        <v>240</v>
+      </c>
+      <c r="C734">
+        <v>100</v>
+      </c>
+      <c r="D734">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A735">
+        <v>239</v>
+      </c>
+      <c r="B735">
+        <v>239</v>
+      </c>
+      <c r="C735">
+        <v>100</v>
+      </c>
+      <c r="D735">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A736">
+        <v>239</v>
+      </c>
+      <c r="B736">
+        <v>240</v>
+      </c>
+      <c r="C736">
+        <v>100</v>
+      </c>
+      <c r="D736">
+        <f t="shared" ref="D736:D767" si="11">IF(C736&gt;=70,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A737">
+        <v>240</v>
+      </c>
+      <c r="B737">
+        <v>240</v>
+      </c>
+      <c r="C737">
+        <v>100</v>
+      </c>
+      <c r="D737">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A738">
+        <v>241</v>
+      </c>
+      <c r="B738">
+        <v>241</v>
+      </c>
+      <c r="C738">
+        <v>100</v>
+      </c>
+      <c r="D738">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A739">
+        <v>241</v>
+      </c>
+      <c r="B739">
+        <v>242</v>
+      </c>
+      <c r="C739">
+        <v>100</v>
+      </c>
+      <c r="D739">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A740">
+        <v>242</v>
+      </c>
+      <c r="B740">
+        <v>242</v>
+      </c>
+      <c r="C740">
+        <v>100</v>
+      </c>
+      <c r="D740">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A741">
+        <v>243</v>
+      </c>
+      <c r="B741">
+        <v>243</v>
+      </c>
+      <c r="C741">
+        <v>100</v>
+      </c>
+      <c r="D741">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A742">
+        <v>243</v>
+      </c>
+      <c r="B742">
+        <v>244</v>
+      </c>
+      <c r="C742">
+        <v>100</v>
+      </c>
+      <c r="D742">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A743">
+        <v>244</v>
+      </c>
+      <c r="B743">
+        <v>244</v>
+      </c>
+      <c r="C743">
+        <v>100</v>
+      </c>
+      <c r="D743">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A744">
+        <v>245</v>
+      </c>
+      <c r="B744">
+        <v>245</v>
+      </c>
+      <c r="C744">
+        <v>100</v>
+      </c>
+      <c r="D744">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A745">
+        <v>245</v>
+      </c>
+      <c r="B745">
+        <v>246</v>
+      </c>
+      <c r="C745">
+        <v>100</v>
+      </c>
+      <c r="D745">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A746">
+        <v>246</v>
+      </c>
+      <c r="B746">
+        <v>246</v>
+      </c>
+      <c r="C746">
+        <v>100</v>
+      </c>
+      <c r="D746">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A747">
+        <v>247</v>
+      </c>
+      <c r="B747">
+        <v>247</v>
+      </c>
+      <c r="C747">
+        <v>100</v>
+      </c>
+      <c r="D747">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A748">
+        <v>247</v>
+      </c>
+      <c r="B748">
+        <v>248</v>
+      </c>
+      <c r="C748">
+        <v>100</v>
+      </c>
+      <c r="D748">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A749">
+        <v>248</v>
+      </c>
+      <c r="B749">
+        <v>248</v>
+      </c>
+      <c r="C749">
+        <v>100</v>
+      </c>
+      <c r="D749">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A750">
+        <v>249</v>
+      </c>
+      <c r="B750">
+        <v>249</v>
+      </c>
+      <c r="C750">
+        <v>100</v>
+      </c>
+      <c r="D750">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A751">
+        <v>249</v>
+      </c>
+      <c r="B751">
+        <v>250</v>
+      </c>
+      <c r="C751">
+        <v>100</v>
+      </c>
+      <c r="D751">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A752">
+        <v>250</v>
+      </c>
+      <c r="B752">
+        <v>250</v>
+      </c>
+      <c r="C752">
+        <v>100</v>
+      </c>
+      <c r="D752">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A753">
+        <v>251</v>
+      </c>
+      <c r="B753">
+        <v>251</v>
+      </c>
+      <c r="C753">
+        <v>100</v>
+      </c>
+      <c r="D753">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A754">
+        <v>251</v>
+      </c>
+      <c r="B754">
+        <v>252</v>
+      </c>
+      <c r="C754">
+        <v>100</v>
+      </c>
+      <c r="D754">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A755">
+        <v>252</v>
+      </c>
+      <c r="B755">
+        <v>252</v>
+      </c>
+      <c r="C755">
+        <v>100</v>
+      </c>
+      <c r="D755">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A756">
+        <v>253</v>
+      </c>
+      <c r="B756">
+        <v>253</v>
+      </c>
+      <c r="C756">
+        <v>100</v>
+      </c>
+      <c r="D756">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A757">
+        <v>253</v>
+      </c>
+      <c r="B757">
+        <v>254</v>
+      </c>
+      <c r="C757">
+        <v>100</v>
+      </c>
+      <c r="D757">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A758">
+        <v>254</v>
+      </c>
+      <c r="B758">
+        <v>254</v>
+      </c>
+      <c r="C758">
+        <v>100</v>
+      </c>
+      <c r="D758">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A759">
+        <v>255</v>
+      </c>
+      <c r="B759">
+        <v>255</v>
+      </c>
+      <c r="C759">
+        <v>100</v>
+      </c>
+      <c r="D759">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A760">
+        <v>255</v>
+      </c>
+      <c r="B760">
+        <v>256</v>
+      </c>
+      <c r="C760">
+        <v>100</v>
+      </c>
+      <c r="D760">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A761">
+        <v>256</v>
+      </c>
+      <c r="B761">
+        <v>256</v>
+      </c>
+      <c r="C761">
+        <v>100</v>
+      </c>
+      <c r="D761">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A762">
+        <v>257</v>
+      </c>
+      <c r="B762">
+        <v>257</v>
+      </c>
+      <c r="C762">
+        <v>100</v>
+      </c>
+      <c r="D762">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A763">
+        <v>257</v>
+      </c>
+      <c r="B763">
+        <v>258</v>
+      </c>
+      <c r="C763">
+        <v>100</v>
+      </c>
+      <c r="D763">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A764">
+        <v>258</v>
+      </c>
+      <c r="B764">
+        <v>258</v>
+      </c>
+      <c r="C764">
+        <v>100</v>
+      </c>
+      <c r="D764">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A765">
+        <v>247</v>
+      </c>
+      <c r="B765">
+        <v>249</v>
+      </c>
+      <c r="C765">
+        <v>100</v>
+      </c>
+      <c r="D765">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A766">
+        <v>247</v>
+      </c>
+      <c r="B766">
+        <v>250</v>
+      </c>
+      <c r="C766">
+        <v>78.349999999999994</v>
+      </c>
+      <c r="D766">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A767">
+        <v>247</v>
+      </c>
+      <c r="B767">
+        <v>251</v>
+      </c>
+      <c r="C767">
+        <v>70</v>
+      </c>
+      <c r="D767">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A768">
+        <v>247</v>
+      </c>
+      <c r="B768">
+        <v>252</v>
+      </c>
+      <c r="C768">
+        <v>70</v>
+      </c>
+      <c r="D768">
+        <f>IF(C769&gt;=70,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A769">
+        <v>247</v>
+      </c>
+      <c r="B769">
+        <v>253</v>
+      </c>
+      <c r="C769">
+        <v>100</v>
+      </c>
+      <c r="D769">
+        <f t="shared" ref="D769:D776" si="12">IF(C770&gt;=70,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A770">
+        <v>247</v>
+      </c>
+      <c r="B770">
+        <v>254</v>
+      </c>
+      <c r="C770">
+        <v>80.040000000000006</v>
+      </c>
+      <c r="D770">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A771">
+        <v>247</v>
+      </c>
+      <c r="B771">
+        <v>255</v>
+      </c>
+      <c r="C771">
+        <v>100</v>
+      </c>
+      <c r="D771">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A772">
+        <v>247</v>
+      </c>
+      <c r="B772">
+        <v>256</v>
+      </c>
+      <c r="C772">
+        <v>84.46</v>
+      </c>
+      <c r="D772">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A773">
+        <v>247</v>
+      </c>
+      <c r="B773">
+        <v>257</v>
+      </c>
+      <c r="C773">
+        <v>70</v>
+      </c>
+      <c r="D773">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A774">
+        <v>247</v>
+      </c>
+      <c r="B774">
+        <v>258</v>
+      </c>
+      <c r="C774">
+        <v>82.46</v>
+      </c>
+      <c r="D774">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A775">
+        <v>248</v>
+      </c>
+      <c r="B775">
+        <v>251</v>
+      </c>
+      <c r="C775">
+        <v>70</v>
+      </c>
+      <c r="D775">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A776">
+        <v>248</v>
+      </c>
+      <c r="B776">
+        <v>254</v>
+      </c>
+      <c r="C776">
+        <v>80.040000000000006</v>
+      </c>
+      <c r="D776">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A777">
+        <v>248</v>
+      </c>
+      <c r="B777">
+        <v>256</v>
+      </c>
+      <c r="C777">
+        <v>84.46</v>
+      </c>
+      <c r="D777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A778">
+        <v>249</v>
+      </c>
+      <c r="B778">
+        <v>250</v>
+      </c>
+      <c r="C778">
+        <v>78.349999999999994</v>
+      </c>
+      <c r="D778">
+        <f>IF(C778&gt;=70,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A779">
+        <v>249</v>
+      </c>
+      <c r="B779">
+        <v>251</v>
+      </c>
+      <c r="C779">
+        <v>70.42</v>
+      </c>
+      <c r="D779">
+        <f t="shared" ref="D779:D812" si="13">IF(C779&gt;=70,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A780">
+        <v>249</v>
+      </c>
+      <c r="B780">
+        <v>252</v>
+      </c>
+      <c r="C780">
+        <v>71.25</v>
+      </c>
+      <c r="D780">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A781">
+        <v>249</v>
+      </c>
+      <c r="B781">
+        <v>254</v>
+      </c>
+      <c r="C781">
+        <v>80.040000000000006</v>
+      </c>
+      <c r="D781">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A782">
+        <v>249</v>
+      </c>
+      <c r="B782">
+        <v>255</v>
+      </c>
+      <c r="C782">
+        <v>100</v>
+      </c>
+      <c r="D782">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A783">
+        <v>249</v>
+      </c>
+      <c r="B783">
+        <v>256</v>
+      </c>
+      <c r="C783">
+        <v>84.46</v>
+      </c>
+      <c r="D783">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A784">
+        <v>249</v>
+      </c>
+      <c r="B784">
+        <v>258</v>
+      </c>
+      <c r="C784">
+        <v>82.46</v>
+      </c>
+      <c r="D784">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A785">
+        <v>250</v>
+      </c>
+      <c r="B785">
+        <v>252</v>
+      </c>
+      <c r="C785">
+        <v>70</v>
+      </c>
+      <c r="D785">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A786">
+        <v>250</v>
+      </c>
+      <c r="B786">
+        <v>254</v>
+      </c>
+      <c r="C786">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="D786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A787">
+        <v>250</v>
+      </c>
+      <c r="B787">
+        <v>255</v>
+      </c>
+      <c r="C787">
+        <v>77.7</v>
+      </c>
+      <c r="D787">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A788">
+        <v>250</v>
+      </c>
+      <c r="B788">
+        <v>256</v>
+      </c>
+      <c r="C788">
+        <v>71.069999999999993</v>
+      </c>
+      <c r="D788">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A789">
+        <v>250</v>
+      </c>
+      <c r="B789">
+        <v>257</v>
+      </c>
+      <c r="C789">
+        <v>77.7</v>
+      </c>
+      <c r="D789">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A790">
+        <v>250</v>
+      </c>
+      <c r="B790">
+        <v>258</v>
+      </c>
+      <c r="C790">
+        <v>83.45</v>
+      </c>
+      <c r="D790">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A791">
+        <v>251</v>
+      </c>
+      <c r="B791">
+        <v>253</v>
+      </c>
+      <c r="C791">
+        <v>67.42</v>
+      </c>
+      <c r="D791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A792">
+        <v>251</v>
+      </c>
+      <c r="B792">
+        <v>254</v>
+      </c>
+      <c r="C792">
+        <v>53.98</v>
+      </c>
+      <c r="D792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A793">
+        <v>251</v>
+      </c>
+      <c r="B793">
+        <v>255</v>
+      </c>
+      <c r="C793">
+        <v>67.42</v>
+      </c>
+      <c r="D793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A794">
+        <v>251</v>
+      </c>
+      <c r="B794">
+        <v>256</v>
+      </c>
+      <c r="C794">
+        <v>71.17</v>
+      </c>
+      <c r="D794">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A795">
+        <v>251</v>
+      </c>
+      <c r="B795">
+        <v>257</v>
+      </c>
+      <c r="C795">
+        <v>67.42</v>
+      </c>
+      <c r="D795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A796">
+        <v>251</v>
+      </c>
+      <c r="B796">
+        <v>258</v>
+      </c>
+      <c r="C796">
+        <v>59.72</v>
+      </c>
+      <c r="D796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A797">
+        <v>252</v>
+      </c>
+      <c r="B797">
+        <v>254</v>
+      </c>
+      <c r="C797">
+        <v>59.34</v>
+      </c>
+      <c r="D797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A798">
+        <v>252</v>
+      </c>
+      <c r="B798">
+        <v>255</v>
+      </c>
+      <c r="C798">
+        <v>68</v>
+      </c>
+      <c r="D798">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A799">
+        <v>252</v>
+      </c>
+      <c r="B799">
+        <v>256</v>
+      </c>
+      <c r="C799">
+        <v>68.25</v>
+      </c>
+      <c r="D799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A800">
+        <v>252</v>
+      </c>
+      <c r="B800">
+        <v>257</v>
+      </c>
+      <c r="C800">
+        <v>68.7</v>
+      </c>
+      <c r="D800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A801">
+        <v>252</v>
+      </c>
+      <c r="B801">
+        <v>258</v>
+      </c>
+      <c r="C801">
+        <v>67.28</v>
+      </c>
+      <c r="D801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D802">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D803">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D804">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D805">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D806">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D807">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D808">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D809">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D810">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D811">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D812">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
